--- a/StructureDefinition-ext-R5-Questionnaire.item.xlsx
+++ b/StructureDefinition-ext-R5-Questionnaire.item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -839,7 +839,7 @@
   </si>
   <si>
     <t>Element `Questionnaire.item.disabledDisplay` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.disabledDisplay` is mapped to FHIR R4 structure `Questionnaire`, but has no target element specified.</t>
+Element `Questionnaire.item.disabledDisplay` is will have a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.</t>
   </si>
   <si>
     <t>Extension.extension:disabledDisplay.id</t>

--- a/StructureDefinition-ext-R5-Questionnaire.item.xlsx
+++ b/StructureDefinition-ext-R5-Questionnaire.item.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,8 @@
 *  R4B: `Questionnaire.item` 0..* `BackboneElement`
 *  R4: `Questionnaire.item` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `Questionnaire.item` is mapped to FHIR R4 element `Questionnaire.item`.</t>
+Element `Questionnaire.item` has is mapped to FHIR R4 element `Questionnaire.item`, but has no comparisons.
+Note available implied context: `Questionnaire.item.item` because `Questionnaire.item.item` is defined as a content reference to `Questionnaire.item`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -142,7 +143,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Extension.extension</t>
+    <t>element:Questionnaire.item</t>
   </si>
   <si>
     <t>ID</t>
@@ -350,8 +351,8 @@
 LinkIds can have whitespaces and slashes by design. Tooling should not rely on linkIds being valid XHTML element IDs, and should not directly embed them as such</t>
   </si>
   <si>
-    <t>[QuestionnaireResponse](https://hl7.org/fhir/q.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient. Element `Questionnaire.item.linkId` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.linkId` is mapped to FHIR R4 element `Questionnaire.item.linkId`.</t>
+    <t>[QuestionnaireResponse](https://hl7.org/fhir/q.html#) does not require omitted items to be included and may have some items that repeat, so linkage based on position alone is not sufficient. Element `Questionnaire.item.linkId` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.linkId` has is mapped to FHIR R4 element `Questionnaire.item.linkId`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:linkId.id</t>
@@ -435,8 +436,8 @@
     <t>The uri refers to an ElementDefinition in a [StructureDefinition](https://hl7.org/fhir/s.html#) or to an [ObservationDefinition](https://hl7.org/fhir/observationdefinition.html) and always starts with the [canonical URL](https://hl7.org/fhir/references.html#canonical) for the target resource. When referring to a StructureDefinition, a fragment identifier is used to specify the element definition by its id [Element.id](https://hl7.org/fhir/types-defin.html#Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x]. In the absence of a fragment identifier, the first/root element definition in the target is the matching element definition.</t>
   </si>
   <si>
-    <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition. Element `Questionnaire.item.definition` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.definition` is mapped to FHIR R4 element `Questionnaire.item.definition`.</t>
+    <t>A common pattern is to define a set of data elements and then build multiple questionnaires for different circumstances to gather the data. This element provides traceability to the common definition and allows the content for the question to come from the underlying definition. Element `Questionnaire.item.definition` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.definition` has is mapped to FHIR R4 element `Questionnaire.item.definition`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:definition.id</t>
@@ -469,8 +470,8 @@
     <t>The value may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
-    <t>Allows linking of groups of questions to formal terminologies. Element `Questionnaire.item.code` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.code` is mapped to FHIR R4 element `Questionnaire.item.code`.</t>
+    <t>Allows linking of groups of questions to formal terminologies. Element `Questionnaire.item.code` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.code` has is mapped to FHIR R4 element `Questionnaire.item.code`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -516,8 +517,8 @@
     <t>These are generally unique within a questionnaire, though this is not guaranteed. Some questionnaires may have multiple questions with the same label with logic to control which gets exposed.  Typically, these won't be used for "display" items, though such use is not prohibited.  Systems SHOULD NOT generate their own prefixes if prefixes are defined for any items within a Questionnaire.</t>
   </si>
   <si>
-    <t>Separating the label from the question text allows improved rendering.  Also, instructions will often refer to specific prefixes, so there's a need for the questionnaire design to have control over what labels are used. Element `Questionnaire.item.prefix` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.prefix` is mapped to FHIR R4 element `Questionnaire.item.prefix`.</t>
+    <t>Separating the label from the question text allows improved rendering.  Also, instructions will often refer to specific prefixes, so there's a need for the questionnaire design to have control over what labels are used. Element `Questionnaire.item.prefix` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.prefix` has is mapped to FHIR R4 element `Questionnaire.item.prefix`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:prefix.id</t>
@@ -550,8 +551,8 @@
     <t>When using this element to represent the name of a section, use group type item and also make sure to limit the text element to a short string suitable for display as a section heading.  Group item instructions should be included as a display type item within the group.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.text` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.text` is mapped to FHIR R4 element `Questionnaire.item.text`.</t>
+    <t>Element `Questionnaire.item.text` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.text` has is mapped to FHIR R4 element `Questionnaire.item.text`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:text.id</t>
@@ -584,8 +585,8 @@
     <t>Additional constraints on the type of answer can be conveyed by extensions. The value may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
-    <t>Defines the format in which the user is to be prompted for the answer. Element `Questionnaire.item.type` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.type` is mapped to FHIR R4 element `Questionnaire.item.type`.</t>
+    <t>Defines the format in which the user is to be prompted for the answer. Element `Questionnaire.item.type` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.type` has is mapped to FHIR R4 element `Questionnaire.item.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -631,8 +632,9 @@
     <t>If multiple repetitions of this extension are present, the interpretation is driven by enableBehavior (either all repetitions must evaluate to true for this item to be enabled, or only one must evaluate to true for the item to be enabled).  If the enableWhen.question has multiple answers, the condition evaluates to true if *any* of the answers for the referenced item match the enableWhen condition.  This element is a modifier because if enableWhen is present for an item, "required" is ignored unless one of the enableWhen conditions is met. When an item is disabled, all of its descendants are disabled, regardless of what their own enableWhen logic might evaluate to.  If enableWhen logic depends on an item that is disabled, the logic should proceed as though the item is not valued - even if a default value or other value might be retained in memory in the event of the item being re-enabled.  In some cases, the comparison between the indicated answer and the specified value may differ only by precision.  For example, the enableWhen might be Q1 &gt; 1970, but the answer to Q1 is 1970-10-15.  There is not a clear answer as to whether 1970-10-15 should be considered 'greater' than 1970, given that it is an imprecise value.  In these indeterminate situations, the form filler has the option of refusing to render the form.  If the form **is** displayed, items where enableWhen is indeterminate SHOULD be treated as enabled with a warning indicating that the questionnaire logic was faulty and it is possible that the item should not be enabled.  Questionnaires SHOULD be designed to take into account challenges around varying precision to minimize non-deterministic situations by setting constraints around expected precision, etc.</t>
   </si>
   <si>
-    <t>Allows questionnaires to adapt based on answers to other questions. E.g. If physical gender is specified as a male, no need to capture pregnancy history.  Also allows conditional display of instructions or groups of questions. Element `Questionnaire.item.enableWhen` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.enableWhen` is mapped to FHIR R4 element `Questionnaire.item.enableWhen`.</t>
+    <t>Allows questionnaires to adapt based on answers to other questions. E.g. If physical gender is specified as a male, no need to capture pregnancy history.  Also allows conditional display of instructions or groups of questions. Element `Questionnaire.item.enableWhen` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Note that the target element context `Questionnaire.item.enableWhen` is a modifier element, so this extension does not need to be defined as a modifier.
+Element `Questionnaire.item.enableWhen` has is mapped to FHIR R4 element `Questionnaire.item.enableWhen`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen.id</t>
@@ -659,7 +661,8 @@
     <t>If multiple question occurrences are present for the same question (same linkId), then this refers to the nearest question occurrence reachable by tracing first the "ancestor" axis and then the "preceding" axis and then the "following" axis.  If there are multiple items with the same linkId and all are equadistant (e.g. a question references a question that appears in a separate repeating group), that is an error.  (Consider using the enableWhenExpression extension to define logic to handle such a situation.)</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.enableWhen.question` is mapped to FHIR R4 element `Questionnaire.item.enableWhen.question`.</t>
+    <t>Element `Questionnaire.item.enableWhen.question` is part of an existing definition because parent element `Questionnaire.item.enableWhen` requires a cross-version extension.
+Element `Questionnaire.item.enableWhen.question` has is mapped to FHIR R4 element `Questionnaire.item.enableWhen.question`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen.extension:question.id</t>
@@ -701,7 +704,8 @@
     <t>Specifies the criteria by which the question is enabled.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.enableWhen.operator` is mapped to FHIR R4 element `Questionnaire.item.enableWhen.operator`.</t>
+    <t>Element `Questionnaire.item.enableWhen.operator` is part of an existing definition because parent element `Questionnaire.item.enableWhen` requires a cross-version extension.
+Element `Questionnaire.item.enableWhen.operator` has is mapped to FHIR R4 element `Questionnaire.item.enableWhen.operator`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen.extension:operator.id</t>
@@ -737,8 +741,9 @@
     <t>A value that the referenced question is tested using the specified operator in order for the item to be enabled.  If there are multiple answers, a match on any of the answers suffices.  If different behavior is desired (all must match, at least 2 must match, etc.), consider using the enableWhenExpression extension.</t>
   </si>
   <si>
-    <t>Note that the target element context `Questionnaire.item.enableWhen.answer[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.enableWhen`.
-Element `Questionnaire.item.enableWhen.answer[x]` is mapped to FHIR R4 element `Questionnaire.item.enableWhen.answer[x]`.
+    <t>Element `Questionnaire.item.enableWhen.answer[x]` is part of an existing definition because parent element `Questionnaire.item.enableWhen` requires a cross-version extension.
+Note that the target element context `Questionnaire.item.enableWhen.answer[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.enableWhen`.
+Element `Questionnaire.item.enableWhen.answer[x]` has is mapped to FHIR R4 element `Questionnaire.item.enableWhen.answer[x]`, but has no comparisons.
 Note that the target element context `Questionnaire.item.enableWhen.answer[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.enableWhen`.</t>
   </si>
   <si>
@@ -801,8 +806,8 @@
     <t>This element must be specified if more than one enableWhen value is provided.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.enableBehavior` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.enableBehavior` is mapped to FHIR R4 element `Questionnaire.item.enableBehavior`.</t>
+    <t>Element `Questionnaire.item.enableBehavior` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.enableBehavior` has is mapped to FHIR R4 element `Questionnaire.item.enableBehavior`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:enableBehavior.id</t>
@@ -838,8 +843,8 @@
     <t>If not specified, rendering behavior is up to the client.  This element is only meaningful if enableWhen or an equivalent extension is present</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.disabledDisplay` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.disabledDisplay` is will have a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.</t>
+    <t>Element `Questionnaire.item.disabledDisplay` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.disabledDisplay` has a context of Questionnaire.item based on following the parent source element upwards and mapping to `Questionnaire`.</t>
   </si>
   <si>
     <t>Extension.extension:disabledDisplay.id</t>
@@ -869,8 +874,8 @@
     <t>If the required item is a question, it must have a direct answer (i.e. an answer to the question itself, not merely answers to child questions) in order for the QuestionnaireResponse to be complete.  If the required item is a group, it must have at least one descendant question which has an answer  Questionnaire.item.required only has meaning for elements that are conditionally enabled with enableWhen if the condition evaluates to true.  It also only has meaning if the parent element is present.  If a non-required 'group' item contains a 'required' question item, it's completely fine to omit the group (because it's not required) despite it having a required child.  Similarly, if an item that contains other items is marked as required, that does not automatically make the contained elements required (though required groups must contain at least one descendant item with a populated answer). The value for 'required' may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.required` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.required` is mapped to FHIR R4 element `Questionnaire.item.required`.</t>
+    <t>Element `Questionnaire.item.required` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.required` has is mapped to FHIR R4 element `Questionnaire.item.required`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:required.id</t>
@@ -909,8 +914,8 @@
  The value may come from the ElementDefinition referred to by .definition.  When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers.</t>
   </si>
   <si>
-    <t>Items may be used to create set of (related) questions that can be repeated to give multiple answers to such a set. Element `Questionnaire.item.repeats` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.repeats` is mapped to FHIR R4 element `Questionnaire.item.repeats`.</t>
+    <t>Items may be used to create set of (related) questions that can be repeated to give multiple answers to such a set. Element `Questionnaire.item.repeats` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.repeats` has is mapped to FHIR R4 element `Questionnaire.item.repeats`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:repeats.id</t>
@@ -943,8 +948,8 @@
     <t>If specified on a 'group', then all items beneath the specified group are read only.  For questions, this only marks the answer associated with the specific item read only.  Descendant questions are not impacted.  The value of readOnly elements can be established by asserting extensions for defaultValues, linkages that support pre-population and/or extensions that support calculation based on other answers.</t>
   </si>
   <si>
-    <t>Allows certain information to be phrased (and rendered) as a question and an answer, while keeping users from changing it.  May also be useful for preventing changes to pre-populated portions of a questionnaire, for calculated values, etc. Element `Questionnaire.item.readOnly` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.readOnly` is mapped to FHIR R4 element `Questionnaire.item.readOnly`.</t>
+    <t>Allows certain information to be phrased (and rendered) as a question and an answer, while keeping users from changing it.  May also be useful for preventing changes to pre-populated portions of a questionnaire, for calculated values, etc. Element `Questionnaire.item.readOnly` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.readOnly` has is mapped to FHIR R4 element `Questionnaire.item.readOnly`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:readOnly.id</t>
@@ -977,8 +982,8 @@
     <t>For base64binary, reflects the number of characters representing the encoded data, not the number of bytes of the binary data. The value may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.maxLength` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.maxLength` is mapped to FHIR R4 element `Questionnaire.item.maxLength`.</t>
+    <t>Element `Questionnaire.item.maxLength` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.maxLength` has is mapped to FHIR R4 element `Questionnaire.item.maxLength`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:maxLength.id</t>
@@ -1012,9 +1017,9 @@
     <t>For items that have a defined set of allowed answers (via answerOption or answerValueSet), indicates whether values *other* than those specified can be selected.</t>
   </si>
   <si>
-    <t>Introduces the ability for questions to have 'other' answers Element `Questionnaire.item.answerConstraint` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.answerConstraint` is mapped to FHIR R4 element `Questionnaire.item.type`.
-Element `Questionnaire.item.answerConstraint` is mapped to FHIR R4 element `Questionnaire.item.type`.</t>
+    <t>Introduces the ability for questions to have 'other' answers Element `Questionnaire.item.answerConstraint` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.answerConstraint` has is mapped to FHIR R4 element `Questionnaire.item.type`, but has no comparisons.
+Element `Questionnaire.item.answerConstraint` has is mapped to FHIR R4 element `Questionnaire.item.type`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answerConstraint.id</t>
@@ -1047,8 +1052,8 @@
     <t>LOINC defines many useful value sets for questionnaire responses. See [LOINC Answer Lists](https://terminology.hl7.org/LOINC.html). The value may come from the ElementDefinition referred to by .definition.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.answerValueSet` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.answerValueSet` is mapped to FHIR R4 element `Questionnaire.item.answerValueSet`.</t>
+    <t>Element `Questionnaire.item.answerValueSet` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.answerValueSet` has is mapped to FHIR R4 element `Questionnaire.item.answerValueSet`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answerValueSet.id</t>
@@ -1085,8 +1090,8 @@
     <t>This element can be used when the value set machinery of answerValueSet is deemed too cumbersome or when there's a need to capture possible answers that are not codes.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.answerOption` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.answerOption` is mapped to FHIR R4 element `Questionnaire.item.answerOption`.</t>
+    <t>Element `Questionnaire.item.answerOption` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.answerOption` has is mapped to FHIR R4 element `Questionnaire.item.answerOption`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answerOption.id</t>
@@ -1110,8 +1115,9 @@
     <t>The data type of the value must agree with the item.type.</t>
   </si>
   <si>
-    <t>Note that the target element context `Questionnaire.item.answerOption.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.answerOption`.
-Element `Questionnaire.item.answerOption.value[x]` is mapped to FHIR R4 element `Questionnaire.item.answerOption.value[x]`.
+    <t>Element `Questionnaire.item.answerOption.value[x]` is part of an existing definition because parent element `Questionnaire.item.answerOption` requires a cross-version extension.
+Note that the target element context `Questionnaire.item.answerOption.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.answerOption`.
+Element `Questionnaire.item.answerOption.value[x]` has is mapped to FHIR R4 element `Questionnaire.item.answerOption.value[x]`, but has no comparisons.
 Note that the target element context `Questionnaire.item.answerOption.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.answerOption`.</t>
   </si>
   <si>
@@ -1146,7 +1152,8 @@
     <t>Indicates whether the answer value is selected when the list of possible answers is initially shown.</t>
   </si>
   <si>
-    <t>Element `Questionnaire.item.answerOption.initialSelected` is mapped to FHIR R4 element `Questionnaire.item.answerOption.initialSelected`.</t>
+    <t>Element `Questionnaire.item.answerOption.initialSelected` is part of an existing definition because parent element `Questionnaire.item.answerOption` requires a cross-version extension.
+Element `Questionnaire.item.answerOption.initialSelected` has is mapped to FHIR R4 element `Questionnaire.item.answerOption.initialSelected`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:answerOption.extension:initialSelected.id</t>
@@ -1188,8 +1195,8 @@
     <t>The user is allowed to change the value and override the default (unless marked as read-only). If the user doesn't change the value, then this initial value will be persisted when the QuestionnaireResponse is initially created.  Note that initial values can influence results.  The data type of initial.answer[x] must agree with the item.type, and only repeating items can have more then one initial value.</t>
   </si>
   <si>
-    <t>In some workflows, having defaults saves time. Element `Questionnaire.item.initial` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.initial` is mapped to FHIR R4 element `Questionnaire.item.initial`.</t>
+    <t>In some workflows, having defaults saves time. Element `Questionnaire.item.initial` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.initial` has is mapped to FHIR R4 element `Questionnaire.item.initial`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:initial.id</t>
@@ -1210,8 +1217,9 @@
     <t>The type of the initial value must be consistent with the type of the item.</t>
   </si>
   <si>
-    <t>Note that the target element context `Questionnaire.item.initial.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.initial`.
-Element `Questionnaire.item.initial.value[x]` is mapped to FHIR R4 element `Questionnaire.item.initial.value[x]`.
+    <t>Element `Questionnaire.item.initial.value[x]` is part of an existing definition because parent element `Questionnaire.item.initial` requires a cross-version extension.
+Note that the target element context `Questionnaire.item.initial.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.initial`.
+Element `Questionnaire.item.initial.value[x]` has is mapped to FHIR R4 element `Questionnaire.item.initial.value[x]`, but has no comparisons.
 Note that the target element context `Questionnaire.item.initial.value[x]` is a choice-type element and cannot directly hold extensions. The context is moved up to parent element `Questionnaire.item.initial`.</t>
   </si>
   <si>
@@ -1258,8 +1266,8 @@
     <t>There is no specified limit to the depth of nesting.  However, Questionnaire authors are encouraged to consider the impact on the user and user interface of overly deep nesting.</t>
   </si>
   <si>
-    <t>Reports can consist of complex nested groups. Element `Questionnaire.item.item` is part of an existing definition because parent element `Questionnaire.item` requires a component extension (e.g., if this element is used as a content reference).
-Element `Questionnaire.item.item` is mapped to FHIR R4 element `Questionnaire.item.item`.</t>
+    <t>Reports can consist of complex nested groups. Element `Questionnaire.item.item` is part of an existing definition because parent element `Questionnaire.item` requires a cross-version extension.
+Element `Questionnaire.item.item` has is mapped to FHIR R4 element `Questionnaire.item.item`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:item.id</t>

--- a/StructureDefinition-ext-R5-Questionnaire.item.xlsx
+++ b/StructureDefinition-ext-R5-Questionnaire.item.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4209" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -493,15 +493,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for questionnaires, groups and individual questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-questionnaire-questions-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:prefix</t>
   </si>
   <si>
@@ -614,7 +605,7 @@
     <t>Distinguishes groups from questions and display text and indicates data type for questions.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-item-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-item-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen</t>
@@ -721,12 +712,6 @@
   </si>
   <si>
     <t>Extension.extension:enableWhen.extension:operator.value[x]</t>
-  </si>
-  <si>
-    <t>The criteria by which a question is enabled.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-questionnaire-enable-operator-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen.extension:answer</t>
@@ -763,13 +748,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
-  </si>
-  <si>
-    <t>Allowed values to answer questions.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-questionnaire-answers-for-R4</t>
+decimalintegerdatedateTimetimestringCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:enableWhen.url</t>
@@ -823,9 +802,6 @@
   </si>
   <si>
     <t>Extension.extension:enableBehavior.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-questionnaire-enable-behavior-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:disabledDisplay</t>
@@ -1071,7 +1047,7 @@
     <t>Extension.extension:answerValueSet.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|0.0.1-snapshot-3|ValueSet|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-ValueSet|ValueSet)
 </t>
   </si>
   <si>
@@ -1137,7 +1113,7 @@
   </si>
   <si>
     <t>integer
-datetimestringCodingReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
+datetimestringCodingReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:answerOption.extension:initialSelected</t>
@@ -1239,7 +1215,7 @@
   </si>
   <si>
     <t>boolean
-decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)</t>
+decimalintegerdatedateTimetimestringuriAttachmentCodingQuantityReference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)</t>
   </si>
   <si>
     <t>Extension.extension:initial.url</t>
@@ -1629,8 +1605,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.25" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="73.78125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3606,13 +3582,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3650,13 +3626,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3681,16 +3657,16 @@
         <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3759,7 +3735,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>108</v>
@@ -3862,7 +3838,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>110</v>
@@ -3967,7 +3943,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>116</v>
@@ -4010,7 +3986,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4072,7 +4048,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>125</v>
@@ -4101,13 +4077,13 @@
         <v>88</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4177,13 +4153,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4208,16 +4184,16 @@
         <v>95</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4286,7 +4262,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>108</v>
@@ -4389,7 +4365,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>110</v>
@@ -4494,7 +4470,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>116</v>
@@ -4537,7 +4513,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4599,7 +4575,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>125</v>
@@ -4628,13 +4604,13 @@
         <v>88</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4704,13 +4680,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4735,16 +4711,16 @@
         <v>95</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4813,7 +4789,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>108</v>
@@ -4916,7 +4892,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>110</v>
@@ -5021,7 +4997,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>116</v>
@@ -5064,7 +5040,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5126,7 +5102,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>125</v>
@@ -5152,16 +5128,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5187,13 +5163,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5231,13 +5207,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5262,16 +5238,16 @@
         <v>95</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5340,7 +5316,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>108</v>
@@ -5443,7 +5419,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>110</v>
@@ -5454,7 +5430,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -5546,13 +5522,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5577,16 +5553,16 @@
         <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -5655,10 +5631,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5758,10 +5734,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5863,10 +5839,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5906,7 +5882,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5968,10 +5944,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5997,13 +5973,13 @@
         <v>88</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6073,13 +6049,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6104,14 +6080,14 @@
         <v>95</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6180,10 +6156,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6283,10 +6259,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6388,10 +6364,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6431,7 +6407,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6493,10 +6469,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6519,13 +6495,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6552,13 +6528,13 @@
         <v>77</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>77</v>
@@ -6596,13 +6572,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6627,14 +6603,14 @@
         <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6703,10 +6679,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6806,10 +6782,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6911,10 +6887,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6954,7 +6930,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -7016,10 +6992,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7042,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7075,13 +7051,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -7119,7 +7095,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>116</v>
@@ -7162,7 +7138,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7224,7 +7200,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>125</v>
@@ -7250,13 +7226,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7327,13 +7303,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7358,16 +7334,16 @@
         <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7436,7 +7412,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>108</v>
@@ -7539,7 +7515,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>110</v>
@@ -7644,7 +7620,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>116</v>
@@ -7687,7 +7663,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7749,7 +7725,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>125</v>
@@ -7775,16 +7751,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -7810,13 +7786,13 @@
         <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>77</v>
@@ -7854,13 +7830,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7885,16 +7861,16 @@
         <v>95</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7963,7 +7939,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>108</v>
@@ -8066,7 +8042,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>110</v>
@@ -8171,7 +8147,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>116</v>
@@ -8214,7 +8190,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8276,7 +8252,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>125</v>
@@ -8302,16 +8278,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8381,13 +8357,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8412,16 +8388,16 @@
         <v>95</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -8490,7 +8466,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>108</v>
@@ -8593,7 +8569,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>110</v>
@@ -8698,7 +8674,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>116</v>
@@ -8741,7 +8717,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8803,7 +8779,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>125</v>
@@ -8829,16 +8805,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -8908,13 +8884,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -8939,16 +8915,16 @@
         <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9017,7 +8993,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>108</v>
@@ -9120,7 +9096,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>110</v>
@@ -9225,7 +9201,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>116</v>
@@ -9268,7 +9244,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9330,7 +9306,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>125</v>
@@ -9356,16 +9332,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9435,13 +9411,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9466,16 +9442,16 @@
         <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -9544,7 +9520,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>108</v>
@@ -9647,7 +9623,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>110</v>
@@ -9752,7 +9728,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>116</v>
@@ -9795,7 +9771,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9857,7 +9833,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>125</v>
@@ -9883,16 +9859,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -9962,13 +9938,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -9993,16 +9969,16 @@
         <v>95</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10071,7 +10047,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>108</v>
@@ -10174,7 +10150,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>110</v>
@@ -10279,7 +10255,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>116</v>
@@ -10322,7 +10298,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10384,7 +10360,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>125</v>
@@ -10410,16 +10386,16 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10489,13 +10465,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -10520,14 +10496,14 @@
         <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -10596,7 +10572,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>108</v>
@@ -10699,7 +10675,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>110</v>
@@ -10804,7 +10780,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>116</v>
@@ -10847,7 +10823,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -10909,7 +10885,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>125</v>
@@ -10935,13 +10911,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11012,13 +10988,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11043,16 +11019,16 @@
         <v>95</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11121,7 +11097,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>108</v>
@@ -11224,7 +11200,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>110</v>
@@ -11329,7 +11305,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>116</v>
@@ -11372,7 +11348,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11434,7 +11410,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>125</v>
@@ -11460,16 +11436,16 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -11539,13 +11515,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11570,16 +11546,16 @@
         <v>95</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11648,7 +11624,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>108</v>
@@ -11751,7 +11727,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>110</v>
@@ -11854,13 +11830,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>77</v>
@@ -11885,16 +11861,16 @@
         <v>95</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -11963,10 +11939,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12066,10 +12042,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12171,10 +12147,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12214,7 +12190,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>77</v>
@@ -12276,10 +12252,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12302,16 +12278,16 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -12337,13 +12313,13 @@
         <v>77</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>77</v>
@@ -12381,13 +12357,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12412,14 +12388,14 @@
         <v>95</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -12488,10 +12464,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -12591,10 +12567,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -12696,10 +12672,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -12739,7 +12715,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -12801,10 +12777,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -12827,13 +12803,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -12904,7 +12880,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>116</v>
@@ -12947,7 +12923,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13009,7 +12985,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>125</v>
@@ -13035,13 +13011,13 @@
         <v>77</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
@@ -13112,13 +13088,13 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s" s="2">
         <v>77</v>
@@ -13143,16 +13119,16 @@
         <v>95</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>77</v>
@@ -13221,7 +13197,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>108</v>
@@ -13324,7 +13300,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>110</v>
@@ -13427,13 +13403,13 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>110</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D113" t="s" s="2">
         <v>77</v>
@@ -13458,16 +13434,16 @@
         <v>95</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>77</v>
@@ -13536,10 +13512,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -13639,10 +13615,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -13744,10 +13720,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -13787,7 +13763,7 @@
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="S116" t="s" s="2">
         <v>77</v>
@@ -13849,10 +13825,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -13875,16 +13851,16 @@
         <v>77</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="O117" s="2"/>
       <c r="P117" t="s" s="2">
@@ -13910,13 +13886,13 @@
         <v>77</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="Z117" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="AA117" t="s" s="2">
         <v>77</v>
@@ -13954,7 +13930,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>116</v>
@@ -13997,7 +13973,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14059,7 +14035,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>125</v>
@@ -14085,13 +14061,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14162,13 +14138,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14193,16 +14169,16 @@
         <v>95</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14271,7 +14247,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>108</v>
@@ -14374,7 +14350,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>110</v>
@@ -14479,7 +14455,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>116</v>
@@ -14584,7 +14560,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>125</v>
@@ -14610,13 +14586,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -14818,13 +14794,13 @@
         <v>77</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
